--- a/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/004_local_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/004_local_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -635,22 +635,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45391.66666666666</v>
+        <v>45377.66666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>16</v>
@@ -661,25 +661,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45391.67361111111</v>
+        <v>45377.67361111111</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -687,25 +687,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45391.68055555555</v>
+        <v>45377.68055555555</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -713,25 +713,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45391.6875</v>
+        <v>45377.6875</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -739,25 +739,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45391.69444444445</v>
+        <v>45377.69444444445</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -765,13 +765,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45391.70138888889</v>
+        <v>45377.70138888889</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -783,7 +783,475 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45391.33333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>78</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>41</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45391.34027777778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>55</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45391.34722222222</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>76</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45391.35416666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45391.36111111111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45391.36805555555</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>59</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45391.66666666666</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>103</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45391.67361111111</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>84</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45391.68055555555</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45391.6875</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>98</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>44</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45391.69444444445</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>73</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45391.70138888889</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>19</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45391.83333333334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>69</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45391.84027777778</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>35</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45391.84722222222</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45391.85416666666</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>39</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45391.86111111111</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45391.86805555555</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>56</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
